--- a/excel files/put_call.xlsx
+++ b/excel files/put_call.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joema\PycharmProjects\stocks\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC5BCD3-5C72-4B65-AFC5-41DD510FB3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3295B4C-9254-4038-B241-3C1DA389C1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>Day</t>
   </si>
@@ -29,6 +29,165 @@
   </si>
   <si>
     <t>Equity Put/Call</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>1.09</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.96</t>
   </si>
 </sst>
 </file>
@@ -67,9 +226,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,32 +548,535 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44516</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44518</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44523</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44524</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44529</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44532</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44533</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44536</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44537</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44538</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44539</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44540</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44544</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44545</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44546</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44547</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44551</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44552</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44553</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44554</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44557</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44558</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44559</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44560</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44564</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44566</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44568</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44571</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44572</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44574</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel files/put_call.xlsx
+++ b/excel files/put_call.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joema\PycharmProjects\stocks\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3295B4C-9254-4038-B241-3C1DA389C1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C178B-0720-449F-B36F-4AC4EACBD790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>Day</t>
   </si>
@@ -79,115 +79,115 @@
     <t>0.50</t>
   </si>
   <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
     <t>1.09</t>
   </si>
   <si>
     <t>0.64</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.96</t>
   </si>
 </sst>
 </file>
@@ -226,14 +226,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,533 +543,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>44512</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>44515</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>44516</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>44517</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>44518</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>44519</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>44522</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>44523</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>44524</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>44525</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>44526</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>44529</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>44530</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>44531</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>44532</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>44533</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>44536</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>44537</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>44538</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>44539</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>44540</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>44543</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C41" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>44544</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>44545</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>44546</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>44547</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>44550</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>44551</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>44552</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>44553</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>44554</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B51" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>44557</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>44558</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>44559</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>44560</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>44561</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>44564</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>44565</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>44566</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>44567</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>44568</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>44571</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>44572</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44573</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>44574</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>44575</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="C51" t="s">
         <v>20</v>
       </c>
     </row>
